--- a/biology/Médecine/Ostéite/Ostéite.xlsx
+++ b/biology/Médecine/Ostéite/Ostéite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ost%C3%A9ite</t>
+          <t>Ostéite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ostéite est une inflammation du tissu osseux, causée le plus souvent par une infection bactérienne, causée par une ou plusieurs bactéries mais qui ne concerne pas l'articulation. Elle peut être aiguë ou chronique. On parlait autrefois de « carie des os ».
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ost%C3%A9ite</t>
+          <t>Ostéite</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La porte d'entrée de la bactérie peut être une fracture ouverte, une escarre (parfois appelée plaie de lit) mais aussi des infections de la peau (furoncle - anthrax - impétigo) voire des maladies infectieuses plus banales telles que l'angine [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La porte d'entrée de la bactérie peut être une fracture ouverte, une escarre (parfois appelée plaie de lit) mais aussi des infections de la peau (furoncle - anthrax - impétigo) voire des maladies infectieuses plus banales telles que l'angine .
 Parmi les bactéries fréquemment responsables de l'ostéite, on trouve :
 le staphylocoque doré : cette ostéite est aussi appelée ostéomyélite
 Escherichia coli
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ost%C3%A9ite</t>
+          <t>Ostéite</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,18 +559,89 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les symptômes initiaux sont les suivants :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les symptômes initiaux sont les suivants :
 Syndrome infectieux : fièvre 39 °C - 40 °C, frissons (bactériémie), céphalées.
 Douleurs : vives, localisées, pulsatiles.
-Biologie : vitesse de sédimentation augmentée et CRP élevée.
-Évolution
-Si elle n'est pas traitée, la maladie évolue vers une phase d'abcès, observable par échographie.
+Biologie : vitesse de sédimentation augmentée et CRP élevée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ostéite</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ost%C3%A9ite</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Symptômes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Évolution</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si elle n'est pas traitée, la maladie évolue vers une phase d'abcès, observable par échographie.
 Ensuite, c'est la fistulisation (la plaie s'ouvrant spontanément) avec écoulement de pus à l'extérieur.
 Des morceaux d'os nécrosés, appelés séquestres, peuvent alors se détacher et être évacués par la fistule.
-Complications
-Apparition de nouveau foyers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ostéite</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ost%C3%A9ite</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Symptômes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Complications</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apparition de nouveau foyers.
 Abcès à distance : cerveau, poumon.
 Septicémie, endocardite infectieuse, etc.
 Ostéite chronique.
@@ -565,31 +650,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ost%C3%A9ite</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ostéite</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ost%C3%A9ite</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement est une combinaison de gestes chirurgicaux et d'antibiothérapie.
 Les gestes chirurgicaux sont destinés à retirer la partie infectée de l'os de manière à ne laisser que de l'os sain.
@@ -599,33 +686,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ost%C3%A9ite</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ostéite</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ost%C3%A9ite</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Malade célèbre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ramsès II, qui serait mort d'une ostéite dentaire [2] selon le médecin Maurice Bucaille, bien qu'une cause plus probable de décès soit simplement lié à son âge avancé[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ramsès II, qui serait mort d'une ostéite dentaire  selon le médecin Maurice Bucaille, bien qu'une cause plus probable de décès soit simplement lié à son âge avancé.
 </t>
         </is>
       </c>
